--- a/docs/5u24/doc/_downloads/nablarch5u16-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u16-releasenote.xlsx
@@ -1,75 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0A5EF-B9AE-4CDE-8381-D864D600A378}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D91BA36-8DB5-4456-B6A1-B0820CE03DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u16" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
-    <sheet name="Jackson1系の使用有無判断方法" sheetId="8" r:id="rId4"/>
-    <sheet name="Jackson1系の設定変更方法" sheetId="7" r:id="rId5"/>
+    <sheet name="5u16" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
+    <sheet name="Jackson1系の使用有無判断方法" sheetId="8" r:id="rId3"/>
+    <sheet name="Jackson1系の設定変更方法" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u16'!$A$1:$O$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Jackson1系の設定変更方法!$A$1:$S$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u16'!$4:$5</definedName>
-    <definedName name="Z_0EF4A104_C8C5_4BB8_9459_A34A36EE0DB2_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$A$1:$O$26</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$A$1:$M$26</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$C$6:$M$26</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$A$1:$O$26</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$E$1:$E$26</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$E$1:$E$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$A$1:$O$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_7E72A7FA_5272_4028_BF60_AC28CB0FDCEF_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$E$1:$E$26</definedName>
-    <definedName name="Z_97E28DB9_53A7_48FD_8211_F8091EFD672D_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$E$1:$E$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$A$1:$O$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_AEBFA514_5783_483E_9999_1A19A29D6033_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_B0F4C8B8_30A7_47A3_9D99_1B2817E1C261_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$5</definedName>
-    <definedName name="Z_B411F40C_A56F_482D_B60C_F67E5DEF671D_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u16'!$C$6:$M$26</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u16'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_E48E441D_FA69_4C3B_8C53_088671C9AB11_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_EA0083FB_5437_48A3_9D11_4029C7E5B1F9_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$6:$O$26</definedName>
-    <definedName name="Z_F9C6D7B5_0301_4534_A6AE_FF0B6DC60A9A_.wvu.FilterData" localSheetId="1" hidden="1">'5u16'!$A$5:$O$35</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u16'!$A$1:$O$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Jackson1系の設定変更方法!$A$1:$S$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u16'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,25 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="277">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="209">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -104,237 +47,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>リリース
@@ -342,14 +69,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -359,7 +86,7 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク</t>
@@ -369,26 +96,26 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ETL基盤</t>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -399,7 +126,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>FBシステム
@@ -408,7 +135,7 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムへの
@@ -420,7 +147,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -436,101 +163,101 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>システムリポジトリ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ソースコード</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ETL</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>セッションストア</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>RESTfulウェブサービス</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>◆概要</t>
     <rPh sb="1" eb="3">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>JIRA
 (※5)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>5u15からの変更点を記載しています。</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>セッション有効期間の保存先にDBを追加</t>
@@ -549,12 +276,12 @@
     <rPh sb="17" eb="19">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.6.0
 nablarch-fw-web-dbstore 1.1.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>-</t>
@@ -564,11 +291,11 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/handlers/web/SessionStoreHandler.html#db-managed-expiration</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-336</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>二重サブミット防止</t>
@@ -578,7 +305,7 @@
     <rPh sb="7" eb="9">
       <t>ボウシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>トークンの保存先にDBを追加</t>
@@ -588,43 +315,43 @@
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.6.0
 nablarch-fw-web-doublesubmit-jdbc 1.0.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/libraries/db_double_submit.html#db-double-submit</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.6.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/libraries/stateless_web_app.html#id9</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-338</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-core-repository 1.4.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-339</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログ出力</t>
     <rPh sb="2" eb="4">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログ出力を行っているロガー名を取得できるプレースホルダの追加</t>
@@ -643,23 +370,23 @@
     <rPh sb="28" eb="30">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-core-applog 1.1.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/libraries/log.html#log-log-format</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-346</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HTTPアクセスログ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>クエリ文字列を取得できるプレースホルダの追加</t>
@@ -672,7 +399,7 @@
     <rPh sb="20" eb="22">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HTTPアクセスログにクエリ文字列を出力するプレースホルダを追加しました。</t>
@@ -685,27 +412,27 @@
     <rPh sb="30" eb="32">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>汎用ユーティリティ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-core 1.5.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/javadoc/nablarch/core/util/StringUtil.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-342</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ウェブアプリケーション</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Webアプリケーションをステートレスにする方法を追記</t>
@@ -715,32 +442,32 @@
     <rPh sb="24" eb="26">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/libraries/stateless_web_app.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-336
 NAB-338</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>バッチアプリケーション</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/batch/index.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-349</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>スレッドコンテキスト変数管理ハンドラ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ユーザIDの設定方法を明記</t>
@@ -753,15 +480,15 @@
     <rPh sb="11" eb="13">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-350</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Getting Started</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">プロジェクト新規作成時の注意書きを追記
@@ -781,7 +508,7 @@
     <rPh sb="17" eb="19">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Getting Startedの題材として使用しているExampleは実装例であり、これを改修してアプリケーションを作成することを想定していない旨をGetting Startedの冒頭に追記しました。
@@ -801,43 +528,43 @@
     <rPh sb="93" eb="95">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-345</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-335</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ログフォーマットの見直し</t>
     <rPh sb="9" eb="11">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-web 5u16
 nablarch-jaxrs 5u16
 nablarch-batch 5u16
 nablarch-batch-ee 5u16</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>15650
 15659</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-web-archetype 5u16
 nablarch-jaxrs-archetype 5u16</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-343</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アダプタ</t>
@@ -854,11 +581,11 @@
   </si>
   <si>
     <t>nablarch-jaxrs-adaptor 1.0.6</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>あり(本番)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/application_framework/adaptors/jaxrs_adaptor.html</t>
@@ -870,29 +597,29 @@
     <t xml:space="preserve">nablarch-jackson-adaptor 1.0.6
 nablarch-jersey-adaptor 1.0.5
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>log4jアダプタ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>廃止</t>
     <rPh sb="0" eb="2">
       <t>ハイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>log4jアダプタの廃止</t>
     <rPh sb="10" eb="12">
       <t>ハイシ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-log4j-adaptor 1.0.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>あり(本番)</t>
@@ -908,15 +635,15 @@
     <rPh sb="50" eb="52">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://jvndb.jvn.jp/ja/contents/2019/JVNDB-2019-013606.html</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-337</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Example</t>
@@ -924,31 +651,31 @@
   </si>
   <si>
     <t>nablarch-example-web 5u16</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-336</t>
   </si>
   <si>
     <t>HTTPメッセージングウェブサービス</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-http-messaging 5u16</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">ウェブアプリケーション
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-example-rest 5u16</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-etl 1.2.3</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>「同期応答メッセージ送信処理を伴う取引単体テストの実施方法」に手順を追加</t>
@@ -958,19 +685,19 @@
     <rPh sb="34" eb="36">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-347</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>開発プロセス支援ツール</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch SQL Executor</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>配布用zipの作成ができる機能を追加</t>
@@ -986,15 +713,15 @@
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>sql-executor 1.2.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-334</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch SQL Executor</t>
@@ -1004,7 +731,7 @@
   </si>
   <si>
     <t>■Nablarch 5u16 リリースノート</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u16に書き換える</t>
@@ -1017,7 +744,7 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■Jackson1系の設定変更方法</t>
@@ -1033,7 +760,7 @@
     <rPh sb="15" eb="17">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>ここでは、Jackson1系から2系への設定変更方法について説明します。</t>
@@ -1055,7 +782,7 @@
     <rPh sb="30" eb="32">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>以下の２つの作業を行います。</t>
@@ -1068,7 +795,7 @@
     <rPh sb="9" eb="10">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>・依存ライブラリの変更(pom.xml)</t>
@@ -1078,7 +805,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>・Nablarchのコンポーネント設定ファイルの変更</t>
@@ -1088,7 +815,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>◆依存ライブラリの変更</t>
@@ -1098,7 +825,7 @@
     <rPh sb="9" eb="11">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Jackson1系のライブラリをdependenciesから削除します。</t>
@@ -1108,7 +835,7 @@
     <rPh sb="30" eb="32">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>&lt;dependency&gt;</t>
@@ -1133,14 +860,14 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch.fw.jaxrs.JaxRsMethodBinderFactoryのプロパティhandlerListに設定する</t>
     <rPh sb="60" eb="62">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch.fw.jaxrs.JaxRsHandlerListFactoryを差し替えます。</t>
@@ -1150,7 +877,7 @@
     <rPh sb="44" eb="45">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>【例：修正前】</t>
@@ -1160,7 +887,7 @@
     <rPh sb="3" eb="6">
       <t>シュウセイマエ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1197,7 +924,7 @@
     <rPh sb="115" eb="117">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1257,7 +984,7 @@
       </rPr>
       <t>"/&gt;</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">      &lt;/property&gt;</t>
@@ -1282,7 +1009,7 @@
     <rPh sb="5" eb="6">
       <t>ゴ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1319,7 +1046,7 @@
     <rPh sb="115" eb="117">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -1342,14 +1069,14 @@
       </rPr>
       <t>"/&gt;</t>
     </r>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HTTPセッションの誤使用検知</t>
     <rPh sb="11" eb="13">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>HTTPセッションの誤使用を検知する機能を追加</t>
@@ -1362,7 +1089,7 @@
     <rPh sb="21" eb="23">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>OS環境変数で環境依存値を上書きする機能を追加</t>
@@ -1390,7 +1117,7 @@
     <rPh sb="21" eb="23">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">従来のNablarchで出力できるロガー名は、log.propertiesで設定した名称であったためログの内容から障害箇所などを特定することが困難な場合がありました。
@@ -1447,7 +1174,7 @@
     <rPh sb="124" eb="130">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">StringUtilには文字列結合のメソッドとして、joinメソッドが存在しますが、結合対象の値にnullが指定された場合に"null"と出力されるため、呼び出し側でnullへの対応が必要でした。
@@ -1510,7 +1237,7 @@
     <rPh sb="134" eb="136">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>結合対象の値がnullの場合に任意の文字に置換できる文字列結合メソッドを追加</t>
@@ -1544,7 +1271,7 @@
     <rPh sb="36" eb="38">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>バッチアプリケーションの推奨方式を変更</t>
@@ -1557,7 +1284,7 @@
     <rPh sb="17" eb="19">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">従来の解説書ではユーザIDをスレッドコンテキストに設定する方法が分かりませんでした。スレッドコンテキスト変数管理ハンドラとログ出力にユーザIDの設定が必要な旨を明記しました。
@@ -1598,7 +1325,7 @@
     <rPh sb="80" eb="82">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>IN句を使用できるように対応</t>
@@ -1611,7 +1338,7 @@
     <rPh sb="12" eb="14">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>PostgreSQLでSQL Executorを使用できるように対応</t>
@@ -1621,7 +1348,7 @@
     <rPh sb="32" eb="34">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>環境ごとに異なる値の設定方法として従来のシステムプロパティでの設定値上書き機能に加え、OS環境変数から設定値を読み込む機能を追加しました。</t>
@@ -1679,12 +1406,12 @@
     <rPh sb="62" eb="64">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-jaxrs 5u16
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Jacksonモジュールの脆弱性対応</t>
@@ -1694,7 +1421,7 @@
     <rPh sb="16" eb="18">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Waitt Maven Pluginを最新バージョンにバージョンアップしました。
@@ -1702,7 +1429,7 @@
     <rPh sb="19" eb="21">
       <t>サイシン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更内容はNo.14と同じになります。</t>
@@ -1715,30 +1442,30 @@
     <rPh sb="11" eb="12">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Nablarch開発ツール</t>
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/libraries/log/http_access_log.html#http-access-log-setting
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/handlers/common/thread_context_handler.html#thread-context-handler-user-id-attribute-setting
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">https://jvndb.jvn.jp/ja/contents/2020/JVNDB-2020-002078.html
 https://jvndb.jvn.jp/ja/contents/2019/JVNDB-2019-010901.html
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">アーキタイプに以下の対応を実施しました。
@@ -1795,7 +1522,7 @@
     <rPh sb="132" eb="133">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Nablarchの提供するlog4jアダプタは脆弱性が報告されたlog4j1.2を使用しています。報告された脆弱性はNablarchで使用していない機能のため、log4jアダプタを使用しても攻撃をうけることはありません。
@@ -1858,7 +1585,7 @@
     <rPh sb="192" eb="194">
       <t>リヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Webアプリケーションをステートレスにする設定に変更
@@ -1869,7 +1596,7 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">「同期応答メッセージ送信処理を伴う取引単体テストの実施方法」に以下の手順が洩れていたため追記しました。
@@ -1891,23 +1618,23 @@
     <rPh sb="75" eb="77">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/libraries/repository.html#os
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Waitt Maven Pluginのバージョンアップ
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-example-web 5u16
 nablarch-example-thymeleaf-web 5u16
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Jacksonモジュールの脆弱性対応
@@ -1918,12 +1645,12 @@
     <rPh sb="16" eb="18">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u16/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/03_DealUnitTest/send_sync.html
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">従来はGitからコードを取得し、Mavenを使用して実行するツールでした。
@@ -1962,7 +1689,7 @@
     <rPh sb="84" eb="86">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">従来は本ツールではIN句の使用ができませんでした。
@@ -2011,7 +1738,7 @@
     <rPh sb="72" eb="74">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">従来は本ツールでPostgreSQLを利用すると数値型や真偽値の型のカラムの検索ができない状態でした。
@@ -2059,12 +1786,12 @@
     <rPh sb="79" eb="81">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/web/getting_started/index.html
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u16/doc/development_tools/toolbox/SqlExecutor/SqlExecutor.html</t>
@@ -2074,19 +1801,19 @@
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>スコープ付きDIコンテナの追加</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>DIコンテナ</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-328</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>稼働環境</t>
@@ -2096,7 +1823,7 @@
     <rPh sb="2" eb="4">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アプリケーションフレームワークのテスト環境を更新</t>
@@ -2106,7 +1833,7 @@
     <rPh sb="22" eb="24">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <r>
@@ -2192,16 +1919,16 @@
     <rPh sb="30" eb="32">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■Nablarchフレームワークのテスト環境
 https://nablarch.github.io/docs/5u16/doc/application_framework/application_framework/nablarch/platform.html#id3</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>NAB-351</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">No.1と合わせてステートレスなアプリケーションとするための機能を追加しました。
@@ -2243,7 +1970,7 @@
     <rPh sb="95" eb="97">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">ステートレスなアプリケーションにしようとしているのに、No.1、2の設定が漏れていたときや、実装ミスによって誤ってHTTPセッションを使用してしまうことを防ぐために、HTTPセッションの使用を検知する機能を追加しました。
@@ -2257,7 +1984,7 @@
     <rPh sb="103" eb="105">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>アーキタイプに以下の対応を実施しました。
@@ -2287,7 +2014,7 @@
     <rPh sb="69" eb="70">
       <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">Jackson1系で使用するライブラリ（org.codehaus.jackson:jackson-mapper-asl）に脆弱性が発見されました。
@@ -2309,7 +2036,7 @@
     <rPh sb="177" eb="179">
       <t>イコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>Jackson1系を使用している場合は、Jackson2系に移行してください。
@@ -2348,7 +2075,7 @@
     <rPh sb="124" eb="126">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>■Jackson1系の使用有無判断方法</t>
@@ -2367,7 +2094,7 @@
     <rPh sb="17" eb="19">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>◆依存ライブラリの確認</t>
@@ -2377,7 +2104,7 @@
     <rPh sb="9" eb="11">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>プロジェクトのpom.xmlに以下のJackson1系のライブラリがdependenciesにある場合はJackson1系を使用しています。</t>
@@ -2393,7 +2120,7 @@
     <rPh sb="62" eb="64">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>No.1、2の機能を使用するようアプリケーション設定を変更しました。</t>
@@ -2409,7 +2136,7 @@
     <rPh sb="27" eb="29">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>変更内容はNo.16と同じになります。</t>
@@ -2422,7 +2149,7 @@
     <rPh sb="11" eb="12">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>(マイグレーションサービス向け機能追加のためドキュメントはありません）</t>
@@ -2432,13 +2159,13 @@
     <rPh sb="15" eb="19">
       <t>キノウツイカ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">セッション有効期間の保存先として従来のHTTPセッションに加え、DBを選択できる機能を追加しました。
 従来のNablarchではHTTPセッションに依存する機能があったため、ステートレスなアプリケーションとするためにはAPサーバのセッションを外部化するなどの対応が必要でした。No.1、2の機能追加でフレームワークとしてHTTPセッション非依存な機能を選択できるようになり、APサーバでの対応なしにステートレスなアプリケーションとすることができるようになりました。
 </t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">No.1、2で追加したHTTPセッション非依存な機能の導入方法を記載しました。また、合わせてNo.3の機能を有効化する手順も記載しました。
@@ -2482,7 +2209,7 @@
     <rPh sb="62" eb="64">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t xml:space="preserve">5u15まではJSR352に準拠したバッチアプリケーションを推奨してきましたが、2020年現在のJSR352の普及状況と学習コストの高さを鑑みNablarchバッチアプリケーションを推奨とするよう方針転換しました。
@@ -2524,7 +2251,7 @@
     <rPh sb="100" eb="102">
       <t>テンカン</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>EOLを迎えたStruts1/SAStrutsからNablarchへのマイグレーションサービスをTISで提供します。スムーズに変換できるようにNablarchにスコープを持ったDIコンテナを追加しました。
@@ -2553,41 +2280,25 @@
     <rPh sb="128" eb="130">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>nablarch-fw-scoped-dicontainer 1.0.0
 nablarch-fw 1.3.0
 nablarch-core-beans 1.4.0</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="10"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2987,7 +2698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -2999,7 +2710,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3087,255 +2798,267 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3346,27 +3069,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -4489,369 +4191,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -4866,9 +4205,9 @@
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="26" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="26" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4878,2125 +4217,2125 @@
     <col min="12" max="13" width="24.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.375" style="49" customWidth="1"/>
+    <col min="16" max="17" width="9.375" style="46" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-    </row>
-    <row r="2" spans="1:126" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-    </row>
-    <row r="3" spans="1:126" s="9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="AP3" s="10"/>
-      <c r="DV3" s="11"/>
+    <row r="1" spans="1:126" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+    </row>
+    <row r="2" spans="1:126" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:126" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="AP3" s="7"/>
+      <c r="DV3" s="8"/>
     </row>
     <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="84" t="s">
+      <c r="A4" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="86" t="s">
+      <c r="D4" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:126" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="B6" s="27"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:126" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="43">
         <v>1</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:126" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="46">
+      <c r="D7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" spans="1:126" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="43">
         <f t="shared" ref="C8:C21" si="0">C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:126" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="46">
+      <c r="D8" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="9" spans="1:126" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:126" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="46">
+      <c r="D9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:126" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="46">
+      <c r="D10" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="29"/>
+    </row>
+    <row r="11" spans="1:126" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="46">
+      <c r="D11" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="43">
         <v>15661</v>
       </c>
-      <c r="O11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:126" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="46">
+      <c r="O11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:126" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="N12" s="46">
+      <c r="D12" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="N12" s="43">
         <v>15650</v>
       </c>
-      <c r="O12" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="32"/>
-    </row>
-    <row r="13" spans="1:126" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="46">
+      <c r="O12" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:126" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" s="46">
+      <c r="D13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="43">
         <v>15559</v>
       </c>
-      <c r="O13" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" s="32"/>
-    </row>
-    <row r="14" spans="1:126" s="12" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="75">
+      <c r="O13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="29"/>
+    </row>
+    <row r="14" spans="1:126" s="9" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="72">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="P14" s="32"/>
-    </row>
-    <row r="15" spans="1:126" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="46">
+      <c r="D14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="29"/>
+    </row>
+    <row r="15" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O15" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="1:126" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="46">
+      <c r="D15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:126" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M16" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" s="46">
+      <c r="D16" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="43">
         <v>15649</v>
       </c>
-      <c r="O16" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="P16" s="32"/>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="46">
+      <c r="O16" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="43">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="N17" s="46">
+      <c r="D17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="43">
         <v>15656</v>
       </c>
-      <c r="O17" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17" s="32"/>
-    </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="46">
+      <c r="O17" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M18" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="75">
+      <c r="D18" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="72">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M19" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="46" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="46">
+      <c r="D19" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="43">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="N20" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O20" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="46">
+      <c r="D20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="43">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="O21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="46">
+      <c r="D21" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="43">
         <f>C21+1</f>
         <v>16</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="50">
+      <c r="D22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="47">
         <v>15596</v>
       </c>
-      <c r="O22" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="24" spans="1:16" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="46">
+      <c r="O22" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A23" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="43">
         <f>C22+1</f>
         <v>17</v>
       </c>
-      <c r="D24" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="M24" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" s="32"/>
-    </row>
-    <row r="25" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="46">
+      <c r="D24" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" s="29"/>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="43">
         <f>C24+1</f>
         <v>18</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="51" t="s">
+      <c r="D25" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N25" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="46">
+      <c r="I25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="43">
         <f>C25+1</f>
         <v>19</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O26" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="P26" s="32"/>
-    </row>
-    <row r="27" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A27" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="32"/>
-    </row>
-    <row r="28" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="73" t="s">
+      <c r="D26" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="51">
+      <c r="F26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A27" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="29"/>
+    </row>
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="48">
         <f>C26+1</f>
         <v>20</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M28" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O28" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="P28" s="32"/>
-    </row>
-    <row r="29" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="51">
+      <c r="D28" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" s="29"/>
+    </row>
+    <row r="29" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="48">
         <f>C28+1</f>
         <v>21</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K29" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N29" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O29" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="46">
+      <c r="D29" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="43">
         <f>C29+1</f>
         <v>22</v>
       </c>
-      <c r="D30" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="G30" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K30" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N30" s="46">
+      <c r="D30" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="43">
         <v>15596</v>
       </c>
-      <c r="O30" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="46">
+      <c r="O30" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="43">
         <f t="shared" ref="C31" si="1">C30+1</f>
         <v>23</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="H31" s="46" t="s">
+      <c r="D31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="I31" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="46">
+      <c r="G31" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="43">
         <v>15596</v>
       </c>
-      <c r="O31" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A32" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:16" s="12" customFormat="1" ht="36" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="46">
+      <c r="O31" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="29"/>
+    </row>
+    <row r="33" spans="1:16" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="43">
         <f>C31+1</f>
         <v>24</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="G33" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="46" t="s">
+      <c r="D33" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="N33" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="O33" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A34" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:16" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="46">
+      <c r="I33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="29"/>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A34" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="29"/>
+    </row>
+    <row r="35" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="43">
         <f>C33+1</f>
         <v>25</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="N35" s="46">
+      <c r="D35" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="N35" s="43">
         <v>15619</v>
       </c>
-      <c r="O35" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="P35" s="32"/>
+      <c r="O35" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="23"/>
+      <c r="A36" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A37" s="59"/>
-      <c r="B37" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="46">
+      <c r="A37" s="56"/>
+      <c r="B37" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="43">
         <f>C35+1</f>
         <v>26</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="N37" s="46">
+      <c r="D37" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="N37" s="43">
         <v>15630</v>
       </c>
-      <c r="O37" s="46" t="s">
-        <v>183</v>
+      <c r="O37" s="43" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="48" x14ac:dyDescent="0.15">
-      <c r="A38" s="59"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="46">
+      <c r="A38" s="56"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="43">
         <f>C37+1</f>
         <v>27</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J38" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M38" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="N38" s="46">
+      <c r="D38" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="N38" s="43">
         <v>15630</v>
       </c>
-      <c r="O38" s="46" t="s">
-        <v>185</v>
+      <c r="O38" s="43" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="46">
+      <c r="A39" s="44"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="43">
         <f>C38+1</f>
         <v>28</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="M39" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="N39" s="46">
+      <c r="D39" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="N39" s="43">
         <v>15630</v>
       </c>
-      <c r="O39" s="46" t="s">
-        <v>185</v>
+      <c r="O39" s="43" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="61"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A47" s="49"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A48" s="49"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="49"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="49"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="49"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="49"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="49"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="49"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="49"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="49"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="49"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="49"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="49"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="49"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="49"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="49"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="49"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="49"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="49"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="49"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="49"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="49"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="49"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="49"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
-      <c r="O70" s="49"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="49"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="49"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="49"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="49"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="49"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:O35" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -7007,6 +6346,11 @@
     <sortCondition ref="E7:E24"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7016,13 +6360,8 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <conditionalFormatting sqref="G36">
     <cfRule type="expression" dxfId="13" priority="14">
       <formula>#REF!="完了"</formula>
@@ -7103,9 +6442,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
@@ -7114,97 +6453,97 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
+      <c r="A1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -7213,8 +6552,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4177979-7708-4CED-AB6F-4224DEE359EF}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -7225,444 +6565,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>266</v>
+      <c r="A1" s="59" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="45"/>
-      <c r="C7" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="45"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="45"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B9" s="45"/>
-      <c r="C9" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="45"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
-      <c r="C10" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="45"/>
-      <c r="C11" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="45"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019D4926-1720-4D08-92EE-2B940C034ED5}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="4.875" style="45" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="45"/>
+    <col min="1" max="3" width="4.875" style="42" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>188</v>
+      <c r="A1" s="59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="45" t="s">
-        <v>189</v>
+      <c r="B3" s="42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="45" t="s">
-        <v>101</v>
+      <c r="B5" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C6" s="45" t="s">
-        <v>190</v>
+      <c r="C6" s="42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C7" s="45" t="s">
-        <v>191</v>
+      <c r="C7" s="42" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="45" t="s">
-        <v>192</v>
+      <c r="C8" s="42" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="45" t="s">
-        <v>193</v>
+      <c r="B10" s="42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C12" s="45" t="s">
-        <v>194</v>
+      <c r="C12" s="42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="C14" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C15" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="65"/>
+      <c r="C15" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C16" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="65"/>
+      <c r="C16" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C17" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="65"/>
+      <c r="C17" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="62"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C18" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
+      <c r="C18" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="45" t="s">
-        <v>200</v>
+      <c r="B21" s="42" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C23" s="45" t="s">
-        <v>201</v>
+      <c r="C23" s="42" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C24" s="45" t="s">
-        <v>202</v>
+      <c r="C24" s="42" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C26" s="45" t="s">
-        <v>203</v>
+      <c r="C26" s="42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C28" s="45" t="s">
-        <v>204</v>
+      <c r="C28" s="42" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C29" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="64"/>
+      <c r="C29" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C30" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="65"/>
+      <c r="C30" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C31" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="M31" s="65"/>
+      <c r="C31" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C32" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="M32" s="65"/>
+      <c r="C32" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C33" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="M33" s="65"/>
+      <c r="C33" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C34" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="M34" s="65"/>
+      <c r="C34" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34" s="62"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C35" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="65"/>
+      <c r="C35" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C36" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="M36" s="65"/>
+      <c r="C36" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="62"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C37" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="M37" s="65"/>
+      <c r="C37" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="M37" s="62"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C38" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="M38" s="65"/>
+      <c r="C38" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="M38" s="62"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C39" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="67"/>
+      <c r="C39" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="64"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C42" s="45" t="s">
-        <v>216</v>
+      <c r="C42" s="42" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C43" s="45" t="s">
-        <v>217</v>
+      <c r="C43" s="42" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C44" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="64"/>
+      <c r="C44" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="61"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C45" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="M45" s="65"/>
+      <c r="C45" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C46" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="M46" s="65"/>
+      <c r="C46" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C47" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="M47" s="65"/>
+      <c r="C47" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M47" s="62"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C48" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="M48" s="65"/>
+      <c r="C48" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="62"/>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C49" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="M49" s="65"/>
+      <c r="C49" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" s="62"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C50" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="65"/>
+      <c r="C50" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="62"/>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C51" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="M51" s="65"/>
+      <c r="C51" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M51" s="62"/>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C52" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="M52" s="65"/>
+      <c r="C52" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="M52" s="62"/>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C53" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="M53" s="65"/>
+      <c r="C53" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="M53" s="62"/>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C54" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="67"/>
+      <c r="C54" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="64"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
